--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T20:45:39+02:00</t>
+    <t>2023-07-24T23:46:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-AppointmentResponse</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-AppointmentResponse</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T10:10:09+02:00</t>
+    <t>2023-09-20T09:32:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-AppointmentResponse</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-AppointmentResponse</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -329,7 +329,7 @@
     <t>shortNotice</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-shortnotice}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-shortnotice}
 </t>
   </si>
   <si>
@@ -392,7 +392,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-shortnotice</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-shortnotice</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -420,7 +420,7 @@
     <t>changeConferenceType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/hn-basis-changeConferenceType}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-changeConferenceType}
 </t>
   </si>
   <si>
@@ -439,7 +439,7 @@
     <t>AppointmentResponse.extension:changeConferenceType.url</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-changeConferenceType</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-changeConferenceType</t>
   </si>
   <si>
     <t>AppointmentResponse.extension:changeConferenceType.value[x]</t>
@@ -458,7 +458,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/no-basis-virtual-service-type-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/no-basis-virtual-service-type-vs</t>
   </si>
   <si>
     <t>AppointmentResponse.modifierExtension</t>
@@ -1475,7 +1475,7 @@
     <col min="8" max="8" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.85546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.46484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1489,7 +1489,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.76171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:32:23+02:00</t>
+    <t>2023-09-25T00:16:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -140,7 +140,7 @@
   </si>
   <si>
     <t>apr-1:Either the participantType or actor must be specified {participantType.exists() or actor.exists()}
-dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://example.org/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
+dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
   </si>
   <si>
     <t>Request</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T00:16:31+02:00</t>
+    <t>2023-09-25T11:50:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T11:50:22+02:00</t>
+    <t>2023-09-25T15:31:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:31:18+02:00</t>
+    <t>2023-09-25T15:44:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:44:07+02:00</t>
+    <t>2023-10-05T16:09:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:09:33+02:00</t>
+    <t>2023-10-09T22:41:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T22:41:16+02:00</t>
+    <t>2023-10-11T00:03:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T00:03:21+02:00</t>
+    <t>2023-10-12T00:15:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:15:11+02:00</t>
+    <t>2023-10-12T00:46:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="339">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:46:45+02:00</t>
+    <t>2023-11-08T00:53:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Basisprofil for AppointmentResponse used in 'ny timeløsning' &lt;https://helsenorge.atlassian.net/wiki/spaces/HELSENORGE/pages/2052685825/Draft+-+Timenotifikasjon.+Ny+nasjonal+timel+sning&gt;</t>
+    <t>Basisprofil for AppointmentResponse used in 'ny timeløsning'.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-AppointmentResponse</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-AppointmentResponse</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -139,8 +139,8 @@
     <t>A reply to an appointment request for a patient and/or practitioner(s), such as a confirmation or rejection.</t>
   </si>
   <si>
-    <t>apr-1:Either the participantType or actor must be specified {participantType.exists() or actor.exists()}
-dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}apr-1:Either the participantType or actor must be specified {participantType.exists() or actor.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
   </si>
   <si>
     <t>Request</t>
@@ -193,10 +193,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>AppointmentResponse.implicitRules</t>
   </si>
   <si>
@@ -216,6 +223,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>AppointmentResponse.language</t>
   </si>
   <si>
@@ -293,26 +303,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>AppointmentResponse.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -329,18 +346,14 @@
     <t>shortNotice</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-shortnotice}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice}
 </t>
   </si>
   <si>
     <t>no-basis-shortnotice</t>
   </si>
   <si>
-    <t>Pasient can come on short notice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Patient can come on short notice.</t>
   </si>
   <si>
     <t>AppointmentResponse.extension:shortNotice.id</t>
@@ -362,16 +375,13 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>AppointmentResponse.extension:shortNotice.extension</t>
   </si>
   <si>
     <t>AppointmentResponse.extension.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -392,7 +402,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-shortnotice</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -408,7 +418,7 @@
 </t>
   </si>
   <si>
-    <t>Pasient can come on short notice. Response is boolean</t>
+    <t>Patient can come on short notice. Response is boolean</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -436,6 +446,12 @@
     <t>AppointmentResponse.extension:changeConferenceType.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>AppointmentResponse.extension:changeConferenceType.url</t>
   </si>
   <si>
@@ -464,10 +480,6 @@
     <t>AppointmentResponse.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -475,9 +487,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -509,16 +518,13 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
     <t>AppointmentResponse.identifier.id</t>
   </si>
   <si>
     <t>AppointmentResponse.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>AppointmentResponse.identifier.use</t>
@@ -646,7 +652,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -674,6 +688,10 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -687,10 +705,13 @@
 </t>
   </si>
   <si>
-    <t>Use only logical reference</t>
-  </si>
-  <si>
-    <t>Only use of logical reference is allowed for reference to an appointment</t>
+    <t>Appointment this response relates to</t>
+  </si>
+  <si>
+    <t>Appointment that this response is replying to.</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
   </si>
   <si>
     <t>Request.basedOn</t>
@@ -720,8 +741,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">ref-1
-</t>
+    <t>ele-1
+ref-1</t>
   </si>
   <si>
     <t>AppointmentResponse.appointment.type</t>
@@ -814,6 +835,9 @@
   </si>
   <si>
     <t>This may be either the same as the appointment request to confirm the details of the appointment, or alternately a new time to request a re-negotiation of the end time.</t>
+  </si>
+  <si>
+    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
   </si>
   <si>
     <t>.effectiveTime.high</t>
@@ -850,6 +874,9 @@
     <t>(performer | reusableDevice | subject | location).@typeCode</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
     <t>AppointmentResponse.participantType.id</t>
   </si>
   <si>
@@ -875,7 +902,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-4:If code is used in a codable consept the system and description must be used {code &gt; '' implies (system &gt; '' and display &gt; '')}</t>
+inv-4:If code is used in a codable consept the system must be used {code &gt; '' implies (system &gt; '' )}</t>
   </si>
   <si>
     <t>union(., ./translation)</t>
@@ -915,6 +942,9 @@
 </t>
   </si>
   <si>
+    <t>Use only logical reference</t>
+  </si>
+  <si>
     <t>Only use of logical reference is allowed for reference to an patient in this profile</t>
   </si>
   <si>
@@ -978,123 +1008,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 inv-3:Only FNR or DNR number are allowed as codes to identify patient in this profile. {code = 'FNR' or code = 'DNR'}</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.actor.identifier.type.coding.id</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.actor.identifier.type.coding.extension</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.actor.identifier.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.actor.identifier.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.actor.identifier.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.actor.identifier.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.actor.identifier.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
   </si>
   <si>
     <t>AppointmentResponse.actor.identifier.type.text</t>
@@ -1457,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO70"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1467,7 +1380,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="61.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="58.54296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.26171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -1504,7 +1417,7 @@
     <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="104.5234375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="16.20703125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="43.93359375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="60.5" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1833,16 +1746,16 @@
         <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>35</v>
@@ -1856,10 +1769,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1882,16 +1795,16 @@
         <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1941,7 +1854,7 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
@@ -1950,16 +1863,16 @@
         <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>35</v>
@@ -1973,10 +1886,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1999,16 +1912,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2034,13 +1947,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -2058,7 +1971,7 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -2067,16 +1980,16 @@
         <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>35</v>
@@ -2090,14 +2003,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2116,16 +2029,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2175,7 +2088,7 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
@@ -2184,16 +2097,16 @@
         <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>35</v>
@@ -2207,21 +2120,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>35</v>
@@ -2233,16 +2146,16 @@
         <v>35</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2292,7 +2205,7 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2310,7 +2223,7 @@
         <v>35</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>35</v>
@@ -2324,14 +2237,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2350,15 +2263,17 @@
         <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>35</v>
@@ -2395,17 +2310,19 @@
         <v>35</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="AD8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2414,16 +2331,16 @@
         <v>37</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>35</v>
@@ -2437,16 +2354,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2465,15 +2382,17 @@
         <v>35</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>35</v>
@@ -2522,7 +2441,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2531,16 +2450,16 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>35</v>
@@ -2554,10 +2473,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2580,13 +2499,13 @@
         <v>35</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2637,7 +2556,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2655,7 +2574,7 @@
         <v>35</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>35</v>
@@ -2669,14 +2588,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2695,15 +2614,17 @@
         <v>35</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>35</v>
@@ -2740,19 +2661,19 @@
         <v>35</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -2761,16 +2682,16 @@
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>35</v>
@@ -2784,10 +2705,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2810,16 +2731,16 @@
         <v>35</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2827,7 +2748,7 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>35</v>
@@ -2869,7 +2790,7 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>46</v>
@@ -2887,7 +2808,7 @@
         <v>35</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>35</v>
@@ -2901,10 +2822,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2927,13 +2848,13 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2984,7 +2905,7 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -2993,16 +2914,16 @@
         <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>35</v>
@@ -3016,13 +2937,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>35</v>
@@ -3044,13 +2965,13 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3101,7 +3022,7 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -3110,10 +3031,10 @@
         <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>35</v>
@@ -3133,10 +3054,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3159,13 +3080,13 @@
         <v>35</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3216,7 +3137,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3234,7 +3155,7 @@
         <v>35</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>35</v>
@@ -3248,10 +3169,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3274,13 +3195,13 @@
         <v>35</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3319,19 +3240,19 @@
         <v>35</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3340,10 +3261,10 @@
         <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>35</v>
@@ -3363,10 +3284,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3389,16 +3310,16 @@
         <v>35</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3406,7 +3327,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>35</v>
@@ -3448,7 +3369,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>46</v>
@@ -3466,7 +3387,7 @@
         <v>35</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>35</v>
@@ -3480,10 +3401,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3506,13 +3427,13 @@
         <v>35</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3539,11 +3460,11 @@
         <v>35</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>35</v>
@@ -3561,7 +3482,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3570,16 +3491,16 @@
         <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>35</v>
@@ -3593,14 +3514,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3619,19 +3540,19 @@
         <v>35</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>35</v>
@@ -3668,19 +3589,19 @@
         <v>35</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -3689,16 +3610,16 @@
         <v>37</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>35</v>
@@ -3712,10 +3633,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3726,7 +3647,7 @@
         <v>46</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>35</v>
@@ -3738,13 +3659,13 @@
         <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3795,7 +3716,7 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -3804,33 +3725,33 @@
         <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>35</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3853,13 +3774,13 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3910,7 +3831,7 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -3928,7 +3849,7 @@
         <v>35</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>35</v>
@@ -3942,14 +3863,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3968,16 +3889,16 @@
         <v>35</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4015,19 +3936,19 @@
         <v>35</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -4036,16 +3957,16 @@
         <v>37</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>35</v>
@@ -4059,10 +3980,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4085,19 +4006,19 @@
         <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>35</v>
@@ -4122,13 +4043,13 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
@@ -4146,7 +4067,7 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -4155,16 +4076,16 @@
         <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>35</v>
@@ -4173,15 +4094,15 @@
         <v>35</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4204,19 +4125,19 @@
         <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>35</v>
@@ -4241,13 +4162,13 @@
         <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>35</v>
@@ -4265,7 +4186,7 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
@@ -4274,16 +4195,16 @@
         <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>35</v>
@@ -4292,15 +4213,15 @@
         <v>35</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4308,7 +4229,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>46</v>
@@ -4323,19 +4244,19 @@
         <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>35</v>
@@ -4348,7 +4269,7 @@
         <v>35</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>35</v>
@@ -4384,7 +4305,7 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4393,16 +4314,16 @@
         <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>35</v>
@@ -4411,15 +4332,15 @@
         <v>35</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4442,16 +4363,16 @@
         <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4465,7 +4386,7 @@
         <v>35</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>35</v>
@@ -4501,7 +4422,7 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -4510,16 +4431,16 @@
         <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>35</v>
@@ -4528,15 +4449,15 @@
         <v>35</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4559,15 +4480,17 @@
         <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>35</v>
@@ -4616,7 +4539,7 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -4625,16 +4548,16 @@
         <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>35</v>
@@ -4643,15 +4566,15 @@
         <v>35</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4659,7 +4582,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>46</v>
@@ -4674,16 +4597,16 @@
         <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4733,7 +4656,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -4742,16 +4665,16 @@
         <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>35</v>
@@ -4760,15 +4683,15 @@
         <v>35</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4791,15 +4714,17 @@
         <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>35</v>
@@ -4848,7 +4773,7 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>46</v>
@@ -4857,16 +4782,16 @@
         <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>35</v>
@@ -4880,10 +4805,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4906,13 +4831,13 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4963,7 +4888,7 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -4981,7 +4906,7 @@
         <v>35</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>35</v>
@@ -4995,14 +4920,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5021,16 +4946,16 @@
         <v>35</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5068,19 +4993,19 @@
         <v>35</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5089,16 +5014,16 @@
         <v>37</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>35</v>
@@ -5112,10 +5037,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5138,16 +5063,16 @@
         <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5197,7 +5122,7 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -5206,16 +5131,16 @@
         <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>35</v>
@@ -5229,10 +5154,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5255,16 +5180,16 @@
         <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5290,13 +5215,13 @@
         <v>35</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>35</v>
@@ -5314,7 +5239,7 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5323,16 +5248,16 @@
         <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>35</v>
@@ -5346,10 +5271,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5372,16 +5297,16 @@
         <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5431,7 +5356,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -5440,16 +5365,16 @@
         <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>35</v>
@@ -5458,15 +5383,15 @@
         <v>35</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>35</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5489,16 +5414,16 @@
         <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5548,7 +5473,7 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
@@ -5557,16 +5482,16 @@
         <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>35</v>
@@ -5580,10 +5505,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5606,16 +5531,16 @@
         <v>35</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5665,7 +5590,7 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -5674,22 +5599,22 @@
         <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>35</v>
@@ -5697,10 +5622,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5723,15 +5648,17 @@
         <v>35</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>35</v>
@@ -5780,7 +5707,7 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -5789,22 +5716,22 @@
         <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>35</v>
@@ -5812,10 +5739,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5838,16 +5765,16 @@
         <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5873,13 +5800,13 @@
         <v>35</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>35</v>
@@ -5897,7 +5824,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -5906,33 +5833,33 @@
         <v>37</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>35</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5955,13 +5882,13 @@
         <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6012,7 +5939,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6030,7 +5957,7 @@
         <v>35</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>35</v>
@@ -6044,14 +5971,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6070,16 +5997,16 @@
         <v>35</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6117,19 +6044,19 @@
         <v>35</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
@@ -6138,16 +6065,16 @@
         <v>37</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>35</v>
@@ -6161,10 +6088,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6187,19 +6114,19 @@
         <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>35</v>
@@ -6248,7 +6175,7 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -6257,16 +6184,16 @@
         <v>37</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>35</v>
@@ -6275,15 +6202,15 @@
         <v>35</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6306,19 +6233,19 @@
         <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -6367,7 +6294,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6376,16 +6303,16 @@
         <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>35</v>
@@ -6394,15 +6321,15 @@
         <v>35</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6425,15 +6352,17 @@
         <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>35</v>
@@ -6482,7 +6411,7 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
@@ -6491,33 +6420,33 @@
         <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6540,13 +6469,13 @@
         <v>35</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6597,7 +6526,7 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
@@ -6615,7 +6544,7 @@
         <v>35</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>35</v>
@@ -6629,14 +6558,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6655,16 +6584,16 @@
         <v>35</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6702,19 +6631,19 @@
         <v>35</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -6723,16 +6652,16 @@
         <v>37</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>35</v>
@@ -6746,10 +6675,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6772,16 +6701,16 @@
         <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6831,7 +6760,7 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
@@ -6840,16 +6769,16 @@
         <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>35</v>
@@ -6863,10 +6792,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6889,16 +6818,16 @@
         <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6909,7 +6838,7 @@
         <v>35</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>35</v>
@@ -6924,13 +6853,13 @@
         <v>35</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>35</v>
@@ -6948,7 +6877,7 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -6957,16 +6886,16 @@
         <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>35</v>
@@ -6980,10 +6909,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7006,16 +6935,16 @@
         <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7065,7 +6994,7 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -7074,16 +7003,16 @@
         <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>35</v>
@@ -7092,15 +7021,15 @@
         <v>35</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>35</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7123,13 +7052,13 @@
         <v>35</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7180,7 +7109,7 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7198,7 +7127,7 @@
         <v>35</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>35</v>
@@ -7212,14 +7141,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7238,16 +7167,16 @@
         <v>35</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7285,19 +7214,19 @@
         <v>35</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7306,16 +7235,16 @@
         <v>37</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>35</v>
@@ -7329,10 +7258,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7355,19 +7284,19 @@
         <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -7392,13 +7321,13 @@
         <v>35</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>35</v>
@@ -7416,7 +7345,7 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -7425,16 +7354,16 @@
         <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>35</v>
@@ -7443,15 +7372,15 @@
         <v>35</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7459,7 +7388,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>46</v>
@@ -7474,19 +7403,19 @@
         <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>35</v>
@@ -7511,13 +7440,13 @@
         <v>35</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>35</v>
@@ -7535,7 +7464,7 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -7544,16 +7473,16 @@
         <v>46</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>35</v>
@@ -7562,15 +7491,15 @@
         <v>35</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7593,13 +7522,13 @@
         <v>35</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7650,7 +7579,7 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -7668,7 +7597,7 @@
         <v>35</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>35</v>
@@ -7682,14 +7611,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7708,16 +7637,16 @@
         <v>35</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7755,19 +7684,19 @@
         <v>35</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
@@ -7776,16 +7705,16 @@
         <v>37</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>35</v>
@@ -7799,10 +7728,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7810,10 +7739,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>35</v>
@@ -7825,19 +7754,19 @@
         <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>35</v>
@@ -7886,7 +7815,7 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -7895,16 +7824,16 @@
         <v>37</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>35</v>
@@ -7913,15 +7842,15 @@
         <v>35</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7941,19 +7870,23 @@
         <v>35</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>107</v>
+        <v>286</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>35</v>
       </c>
@@ -8001,7 +7934,7 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>109</v>
+        <v>290</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8010,16 +7943,16 @@
         <v>46</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>110</v>
+        <v>291</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>35</v>
@@ -8028,26 +7961,26 @@
         <v>35</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>35</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>35</v>
@@ -8056,21 +7989,23 @@
         <v>35</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>35</v>
       </c>
@@ -8082,7 +8017,7 @@
         <v>35</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>35</v>
@@ -8106,37 +8041,37 @@
         <v>35</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>35</v>
@@ -8145,15 +8080,15 @@
         <v>35</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>35</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8176,20 +8111,18 @@
         <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>311</v>
+        <v>193</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>312</v>
+        <v>194</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>35</v>
       </c>
@@ -8201,7 +8134,7 @@
         <v>35</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>35</v>
@@ -8213,11 +8146,13 @@
         <v>35</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>35</v>
+      </c>
       <c r="Z58" t="s" s="2">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>35</v>
@@ -8235,7 +8170,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>315</v>
+        <v>197</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -8244,16 +8179,16 @@
         <v>46</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>316</v>
+        <v>198</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>35</v>
@@ -8262,15 +8197,15 @@
         <v>35</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>317</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8293,16 +8228,16 @@
         <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>319</v>
+        <v>202</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>320</v>
+        <v>203</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8352,7 +8287,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>322</v>
+        <v>205</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -8361,16 +8296,16 @@
         <v>46</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>323</v>
+        <v>207</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>35</v>
@@ -8379,15 +8314,15 @@
         <v>35</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>324</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8395,7 +8330,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>46</v>
@@ -8410,18 +8345,18 @@
         <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>35</v>
       </c>
@@ -8469,7 +8404,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>329</v>
+        <v>214</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -8478,16 +8413,16 @@
         <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>330</v>
+        <v>216</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>35</v>
@@ -8496,15 +8431,15 @@
         <v>35</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>331</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8527,18 +8462,18 @@
         <v>47</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>333</v>
+        <v>247</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>35</v>
       </c>
@@ -8586,7 +8521,7 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -8595,16 +8530,16 @@
         <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>337</v>
+        <v>60</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>35</v>
@@ -8613,15 +8548,15 @@
         <v>35</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>338</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8629,7 +8564,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>46</v>
@@ -8638,26 +8573,24 @@
         <v>35</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>35</v>
       </c>
@@ -8681,13 +8614,13 @@
         <v>35</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>35</v>
+        <v>327</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>35</v>
+        <v>328</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>35</v>
@@ -8705,42 +8638,42 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>35</v>
+        <v>331</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>346</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8760,23 +8693,21 @@
         <v>35</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>35</v>
       </c>
@@ -8824,7 +8755,7 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -8833,843 +8764,24 @@
         <v>46</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>35</v>
+        <v>336</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>35</v>
+        <v>338</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO70" t="s" s="2">
         <v>35</v>
       </c>
     </row>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T00:53:28+01:00</t>
+    <t>2023-11-08T01:12:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T01:12:56+01:00</t>
+    <t>2023-11-08T15:53:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T15:53:02+01:00</t>
+    <t>2023-11-19T21:48:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -474,7 +474,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://helsenorge.no/fhir/ValueSet/no-basis-virtual-service-type-vs</t>
+    <t>http://hl7.no/fhir/ValueSet/no-basis-virtual-service-type</t>
   </si>
   <si>
     <t>AppointmentResponse.modifierExtension</t>
@@ -1402,7 +1402,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.69921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-19T21:48:09+01:00</t>
+    <t>2023-11-27T12:35:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T12:35:55+01:00</t>
+    <t>2023-12-04T09:08:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T09:08:22+01:00</t>
+    <t>2023-12-07T13:24:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T13:24:46+01:00</t>
+    <t>2023-12-07T15:19:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:19:19+01:00</t>
+    <t>2023-12-08T09:35:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T09:35:25+01:00</t>
+    <t>2023-12-08T12:58:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T12:58:44+01:00</t>
+    <t>2023-12-08T15:31:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T15:31:30+01:00</t>
+    <t>2023-12-13T23:52:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T23:52:19+01:00</t>
+    <t>2023-12-15T20:08:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T20:08:30+01:00</t>
+    <t>2023-12-19T12:28:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T12:28:54+01:00</t>
+    <t>2023-12-21T10:30:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T10:30:52+01:00</t>
+    <t>2024-01-15T07:10:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T07:10:14+01:00</t>
+    <t>2024-01-16T01:24:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:24:21+01:00</t>
+    <t>2024-01-16T01:49:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:49:14+01:00</t>
+    <t>2024-02-09T14:16:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>46</v>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T14:16:42+01:00</t>
+    <t>2024-06-01T10:49:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T12:01:35+01:00</t>
+    <t>2025-01-31T15:15:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:15:59+01:00</t>
+    <t>2025-01-31T16:07:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1108,7 +1108,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-2:Only urn:oid:2.16.578.1.12.4.1.4.1 (FNR) or urn:oid:2.16.578.1.12.4.1.4.2 (DNR) are allowed as systems to identify patient in this profile. {system = 'urn:oid:2.16.578.1.12.4.1.4.1' or system = 'urn:oid:2.16.578.1.12.4.1.4.2'}</t>
+inv-a:Only urn:oid:2.16.578.1.12.4.1.4.1 (FNR) or urn:oid:2.16.578.1.12.4.1.4.2 (DNR) are allowed as systems to identify patient in this profile. {system = 'urn:oid:2.16.578.1.12.4.1.4.1' or system = 'urn:oid:2.16.578.1.12.4.1.4.2'}</t>
   </si>
   <si>
     <t>AppointmentResponse.actor.identifier.id</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:07:19+01:00</t>
+    <t>2025-02-01T23:53:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T23:53:20+01:00</t>
+    <t>2025-02-15T12:00:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-hn-basis-AppointmentResponse.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="373">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-15T12:00:41+01:00</t>
+    <t>2025-06-05T14:31:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,8 +265,8 @@
     <t>A reply to an appointment request for a patient and/or practitioner(s), such as a confirmation or rejection.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}apr-1:Either the participantType or actor must be specified {participantType.exists() or actor.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
+    <t>apr-1:Either the participantType or actor must be specified {participantType.exists() or actor.exists()}
+dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
   </si>
   <si>
     <t>Request</t>
@@ -319,293 +319,281 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:shortNotice</t>
+  </si>
+  <si>
+    <t>shortNotice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice}
+</t>
+  </si>
+  <si>
+    <t>no-basis-shortnotice</t>
+  </si>
+  <si>
+    <t>Patient can come on short notice.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>AppointmentResponse.extension:shortNotice.id</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:shortNotice.extension</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:shortNotice.url</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:shortNotice.value[x]</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
+    <t>Patient can come on short notice. Response is boolean</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:changeConferenceType</t>
+  </si>
+  <si>
+    <t>changeConferenceType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-changeConferenceType}
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
+    <t>hn-basis-changeConferenceType</t>
+  </si>
+  <si>
+    <t>Patient can ask for anouther type of conference</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:changeConferenceType.id</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:changeConferenceType.extension</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:changeConferenceType.url</t>
+  </si>
+  <si>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-changeConferenceType</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.extension:changeConferenceType.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension</t>
+    <t>Pasient askes for changed conference type.</t>
+  </si>
+  <si>
+    <t>Type of conference that Patient askes for</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/ValueSet/no-basis-virtual-service-type</t>
+  </si>
+  <si>
+    <t>AppointmentResponse.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension:shortNotice</t>
-  </si>
-  <si>
-    <t>shortNotice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice}
-</t>
-  </si>
-  <si>
-    <t>no-basis-shortnotice</t>
-  </si>
-  <si>
-    <t>Patient can come on short notice.</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension:shortNotice.id</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension:shortNotice.extension</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension:shortNotice.url</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension:shortNotice.value[x]</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Patient can come on short notice. Response is boolean</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension:changeConferenceType</t>
-  </si>
-  <si>
-    <t>changeConferenceType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-changeConferenceType}
-</t>
-  </si>
-  <si>
-    <t>hn-basis-changeConferenceType</t>
-  </si>
-  <si>
-    <t>Patient can ask for anouther type of conference</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension:changeConferenceType.id</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension:changeConferenceType.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension:changeConferenceType.url</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-changeConferenceType</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.extension:changeConferenceType.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Pasient askes for changed conference type.</t>
-  </si>
-  <si>
-    <t>Type of conference that Patient askes for</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/ValueSet/no-basis-virtual-service-type</t>
-  </si>
-  <si>
-    <t>AppointmentResponse.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -613,6 +601,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -644,13 +635,16 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>AppointmentResponse.identifier.id</t>
   </si>
   <si>
     <t>AppointmentResponse.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>AppointmentResponse.identifier.use</t>
@@ -778,15 +772,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -814,10 +800,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -837,9 +819,6 @@
     <t>Appointment that this response is replying to.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Request.basedOn</t>
   </si>
   <si>
@@ -867,8 +846,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>AppointmentResponse.appointment.type</t>
@@ -961,9 +940,6 @@
   </si>
   <si>
     <t>This may be either the same as the appointment request to confirm the details of the appointment, or alternately a new time to request a re-negotiation of the end time.</t>
-  </si>
-  <si>
-    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
   </si>
   <si>
     <t>.effectiveTime.high</t>
@@ -998,9 +974,6 @@
   </si>
   <si>
     <t>(performer | reusableDevice | subject | location).@typeCode</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>AppointmentResponse.participantType.id</t>
@@ -1552,7 +1525,7 @@
     <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="104.5234375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="60.5" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="43.93359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2006,16 +1979,16 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>20</v>
@@ -2029,10 +2002,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2055,16 +2028,16 @@
         <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2114,7 +2087,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -2123,16 +2096,16 @@
         <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>20</v>
@@ -2146,10 +2119,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2172,16 +2145,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2207,32 +2180,32 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
@@ -2240,16 +2213,16 @@
         <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>20</v>
@@ -2263,14 +2236,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2289,16 +2262,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2348,7 +2321,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -2357,16 +2330,16 @@
         <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>20</v>
@@ -2380,14 +2353,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2406,16 +2379,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2465,7 +2438,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -2483,7 +2456,7 @@
         <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>20</v>
@@ -2497,14 +2470,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2523,17 +2496,15 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>20</v>
@@ -2570,19 +2541,17 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2591,16 +2560,16 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>20</v>
@@ -2614,16 +2583,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2642,17 +2611,15 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2701,7 +2668,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2710,16 +2677,16 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>20</v>
@@ -2733,10 +2700,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2759,13 +2726,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2816,7 +2783,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2834,7 +2801,7 @@
         <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>20</v>
@@ -2848,14 +2815,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2874,17 +2841,15 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -2921,19 +2886,19 @@
         <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2942,16 +2907,16 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>20</v>
@@ -2965,10 +2930,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2991,16 +2956,16 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3008,7 +2973,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>20</v>
@@ -3050,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>88</v>
@@ -3068,7 +3033,7 @@
         <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>20</v>
@@ -3082,10 +3047,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3108,13 +3073,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3165,7 +3130,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3174,16 +3139,16 @@
         <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3197,13 +3162,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>20</v>
@@ -3225,13 +3190,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3282,7 +3247,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3291,10 +3256,10 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
@@ -3314,10 +3279,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3340,13 +3305,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3397,7 +3362,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3415,7 +3380,7 @@
         <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>20</v>
@@ -3429,10 +3394,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3455,13 +3420,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3500,19 +3465,19 @@
         <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3521,10 +3486,10 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>20</v>
@@ -3544,10 +3509,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3570,16 +3535,16 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3587,7 +3552,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>20</v>
@@ -3629,7 +3594,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>88</v>
@@ -3647,7 +3612,7 @@
         <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>20</v>
@@ -3661,10 +3626,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3687,13 +3652,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3720,11 +3685,11 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3742,7 +3707,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3751,16 +3716,16 @@
         <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
@@ -3774,14 +3739,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3800,19 +3765,19 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3849,19 +3814,19 @@
         <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3870,16 +3835,16 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
@@ -3893,10 +3858,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3919,13 +3884,13 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3976,7 +3941,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3985,33 +3950,33 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="AO21" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4034,13 +3999,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4091,7 +4056,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4109,7 +4074,7 @@
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
@@ -4123,14 +4088,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4149,16 +4114,16 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4196,19 +4161,19 @@
         <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4217,16 +4182,16 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4240,10 +4205,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4266,19 +4231,19 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4303,50 +4268,50 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
       </c>
@@ -4354,15 +4319,15 @@
         <v>20</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4385,19 +4350,19 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4422,66 +4387,66 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AG25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4504,19 +4469,19 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4529,78 +4494,78 @@
         <v>20</v>
       </c>
       <c r="T26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="U26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4623,16 +4588,16 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4646,78 +4611,78 @@
         <v>20</v>
       </c>
       <c r="T27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="U27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4740,17 +4705,15 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4799,7 +4762,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4808,16 +4771,16 @@
         <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
@@ -4826,15 +4789,15 @@
         <v>20</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4857,16 +4820,16 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4916,7 +4879,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4925,16 +4888,16 @@
         <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
@@ -4943,15 +4906,15 @@
         <v>20</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4974,17 +4937,15 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5033,25 +4994,25 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
@@ -5065,10 +5026,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5091,13 +5052,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5148,7 +5109,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5166,7 +5127,7 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
@@ -5180,14 +5141,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5206,16 +5167,16 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5253,19 +5214,19 @@
         <v>20</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5274,16 +5235,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
@@ -5297,10 +5258,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5323,16 +5284,16 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5382,7 +5343,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5391,16 +5352,16 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5414,10 +5375,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5440,16 +5401,16 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5475,13 +5436,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5499,7 +5460,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5508,16 +5469,16 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -5531,10 +5492,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5557,16 +5518,16 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5616,7 +5577,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5625,16 +5586,16 @@
         <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
@@ -5643,15 +5604,15 @@
         <v>20</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5674,16 +5635,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5733,7 +5694,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5742,16 +5703,16 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
@@ -5765,10 +5726,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5791,16 +5752,16 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5850,31 +5811,31 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -5882,10 +5843,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5908,17 +5869,15 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -5967,7 +5926,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5976,22 +5935,22 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -5999,10 +5958,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6025,16 +5984,16 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6060,13 +6019,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6084,7 +6043,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6093,33 +6052,33 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>315</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6142,13 +6101,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6199,7 +6158,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6217,7 +6176,7 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
@@ -6231,14 +6190,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6257,16 +6216,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6304,19 +6263,19 @@
         <v>20</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6325,16 +6284,16 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
@@ -6348,10 +6307,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6374,19 +6333,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6435,7 +6394,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6444,16 +6403,16 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
@@ -6462,15 +6421,15 @@
         <v>20</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6493,19 +6452,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6554,7 +6513,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6563,16 +6522,16 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
@@ -6581,15 +6540,15 @@
         <v>20</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6612,17 +6571,15 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6671,42 +6628,42 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6729,13 +6686,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6786,7 +6743,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6804,7 +6761,7 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -6818,14 +6775,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6844,16 +6801,16 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6891,19 +6848,19 @@
         <v>20</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6912,16 +6869,16 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -6935,10 +6892,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6961,16 +6918,16 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7020,7 +6977,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7029,16 +6986,16 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
@@ -7052,10 +7009,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7078,16 +7035,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7098,7 +7055,7 @@
         <v>20</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>20</v>
@@ -7113,13 +7070,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7137,7 +7094,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7146,16 +7103,16 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7169,10 +7126,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7195,16 +7152,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7254,7 +7211,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7263,16 +7220,16 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -7281,15 +7238,15 @@
         <v>20</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7312,13 +7269,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7369,7 +7326,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7387,7 +7344,7 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
@@ -7401,14 +7358,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7427,16 +7384,16 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7474,19 +7431,19 @@
         <v>20</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7495,16 +7452,16 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -7518,10 +7475,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7544,19 +7501,19 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7581,50 +7538,50 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Z52" t="s" s="2">
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AA52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
       </c>
@@ -7632,15 +7589,15 @@
         <v>20</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7663,19 +7620,19 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -7700,66 +7657,66 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="AA53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Z53" t="s" s="2">
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7782,13 +7739,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7839,7 +7796,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7857,7 +7814,7 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -7871,14 +7828,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7897,16 +7854,16 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7944,19 +7901,19 @@
         <v>20</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7965,16 +7922,16 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -7988,10 +7945,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8014,19 +7971,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8075,7 +8032,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8084,16 +8041,16 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8102,15 +8059,15 @@
         <v>20</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8133,19 +8090,19 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8194,7 +8151,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8203,16 +8160,16 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
@@ -8221,15 +8178,15 @@
         <v>20</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8252,19 +8209,19 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8277,78 +8234,78 @@
         <v>20</v>
       </c>
       <c r="T58" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="U58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8371,16 +8328,16 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8394,78 +8351,78 @@
         <v>20</v>
       </c>
       <c r="T59" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="U59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8488,17 +8445,15 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -8547,7 +8502,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8556,16 +8511,16 @@
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
@@ -8574,15 +8529,15 @@
         <v>20</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8605,16 +8560,16 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8664,7 +8619,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8673,16 +8628,16 @@
         <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>20</v>
@@ -8691,15 +8646,15 @@
         <v>20</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8722,16 +8677,16 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8781,7 +8736,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8790,16 +8745,16 @@
         <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>20</v>
@@ -8813,10 +8768,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8839,16 +8794,16 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8874,13 +8829,13 @@
         <v>20</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>20</v>
@@ -8898,28 +8853,28 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>20</v>
@@ -8930,10 +8885,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8956,16 +8911,16 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9015,7 +8970,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9024,19 +8979,19 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK64" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>20</v>
